--- a/biology/Botanique/Karl_Theodor_Ernst_von_Siebold/Karl_Theodor_Ernst_von_Siebold.xlsx
+++ b/biology/Botanique/Karl_Theodor_Ernst_von_Siebold/Karl_Theodor_Ernst_von_Siebold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Theodor Ernst von Siebold est un anatomiste et un zoologiste bavarois, né le 15 ou 16 février 1804 à Wurtzbourg et mort le 7 avril 1885.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Siebold est le fils d'un médecin et membre d'une famille qui compte de nombreux scientifiques. Il fait des études de médecine et de science à l'université de Berlin et devient successivement professeur de zoologie, de physiologie et d'anatomie comparée à Kaliningrad, Erlangen, Fribourg-en-Brisgau, Breslau puis à Munich.
 En collaboration avec Friedrich Hermann Stannius (1808-1883) il publie un manuel d'anatomie comparée. En 1848, Siebold fonde, avec Rudolph Albert von Kölliker (1817-1905) une publication qui devient rapidement l'une des plus importantes de la littérature scientifique en biologie : Zeitschrift fur wissenschaftliche Zoologie.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 1839 : Beiträge zur Naturgeschichte der wirbellosen Thiere (Danzig).
